--- a/storage/app/CA_WAREHOUSE.xlsx
+++ b/storage/app/CA_WAREHOUSE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRUISERADDICTION\Nextcloud\DATA BASE PROJECT\DOCUMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4B882473-9F27-4168-8B81-BA5355A37BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C50698-4A68-47CE-9948-0A4636FDD6FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8D5CB2D-5B88-4ED6-9151-727A829B7B64}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="659">
   <si>
     <t>90942-02049</t>
   </si>
@@ -1996,6 +1996,18 @@
   </si>
   <si>
     <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>17115-17010</t>
+  </si>
+  <si>
+    <t>48304-60020</t>
+  </si>
+  <si>
+    <t>81111-89117</t>
+  </si>
+  <si>
+    <t>BEAM, SEAL</t>
   </si>
 </sst>
 </file>
@@ -2374,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11192BED-7137-45D3-AA59-A7B57CC94CEC}">
-  <dimension ref="A1:E402"/>
+  <dimension ref="A1:E405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="G407" sqref="G407"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="O397" sqref="O397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4524,7 +4536,7 @@
         <v>207</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" s="1">
         <v>11.99</v>
@@ -4541,7 +4553,7 @@
         <v>208</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E127" s="1">
         <v>31.08</v>
@@ -4575,7 +4587,7 @@
         <v>212</v>
       </c>
       <c r="D129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E129" s="1">
         <v>24.16</v>
@@ -4592,7 +4604,7 @@
         <v>214</v>
       </c>
       <c r="D130">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E130" s="1">
         <v>65</v>
@@ -4660,7 +4672,7 @@
         <v>221</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E134" s="1">
         <v>52.18</v>
@@ -4881,7 +4893,7 @@
         <v>242</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E147" s="1">
         <v>31.95</v>
@@ -5102,7 +5114,7 @@
         <v>264</v>
       </c>
       <c r="D160">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E160" s="1">
         <v>12.35</v>
@@ -5119,7 +5131,7 @@
         <v>266</v>
       </c>
       <c r="D161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E161" s="1">
         <v>56.65</v>
@@ -5357,7 +5369,7 @@
         <v>292</v>
       </c>
       <c r="D175">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E175" s="1">
         <v>54.48</v>
@@ -5374,7 +5386,7 @@
         <v>293</v>
       </c>
       <c r="D176">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E176" s="1">
         <v>54.48</v>
@@ -5731,7 +5743,7 @@
         <v>330</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E197" s="1">
         <v>22.3</v>
@@ -7023,7 +7035,7 @@
         <v>450</v>
       </c>
       <c r="D273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E273" s="1">
         <v>36.68</v>
@@ -9220,6 +9232,57 @@
       </c>
       <c r="E402" s="1">
         <v>39.81</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>654</v>
+      </c>
+      <c r="B403" t="s">
+        <v>84</v>
+      </c>
+      <c r="C403" t="s">
+        <v>655</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+      <c r="E403" s="1">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>654</v>
+      </c>
+      <c r="B404" t="s">
+        <v>329</v>
+      </c>
+      <c r="C404" t="s">
+        <v>656</v>
+      </c>
+      <c r="D404">
+        <v>2</v>
+      </c>
+      <c r="E404" s="1">
+        <v>20.51</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>654</v>
+      </c>
+      <c r="B405" t="s">
+        <v>658</v>
+      </c>
+      <c r="C405" t="s">
+        <v>657</v>
+      </c>
+      <c r="D405">
+        <v>4</v>
+      </c>
+      <c r="E405" s="1">
+        <v>6.77</v>
       </c>
     </row>
   </sheetData>
